--- a/単体テスト/単体テスト 【 アカウント登録確認画面 】.xlsx
+++ b/単体テスト/単体テスト 【 アカウント登録確認画面 】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murakami Eri\Desktop\workspace\workspace-murakami\account\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09875037-B6DE-47B6-B365-2553CC99E66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B27B8-1396-498B-8B7D-35CE147A3AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{177FA795-7FD5-4C77-B047-A86334658023}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -1283,6 +1283,17 @@
     </r>
     <rPh sb="17" eb="20">
       <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナナナナナナナナナナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1810,6 +1821,33 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1852,38 +1890,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2272,19 +2283,7 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2303,7 +2302,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C11943-5205-4F55-A5A9-798E96907E21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2345,7 @@
         <xdr:cNvPr id="3" name="吹き出し: 線 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2D080D-16D1-4888-8677-CEDF43492D65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2455,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 線 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E2BC58-9316-4AD7-97D1-0956642E67BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2613,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 線 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F5E0F5-E34D-4099-B7BA-73132BDAB725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2723,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 線 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AD1BAA-7E47-406E-9B37-D04C87C15E54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2849,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 線 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270D9795-EE9D-40DA-AB36-C9A468BB8B61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2959,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 線 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B174791-38ED-449A-ACD9-D37797524466}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3069,7 @@
         <xdr:cNvPr id="9" name="吹き出し: 線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEC61F2-440D-4225-BD3F-1D9EB353EE33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3179,7 @@
         <xdr:cNvPr id="10" name="吹き出し: 線 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8944188B-BB2C-4417-8490-15E35017B349}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,7 +3289,7 @@
         <xdr:cNvPr id="11" name="吹き出し: 線 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F483E250-70A0-44E2-BBA5-04B292675140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3399,7 @@
         <xdr:cNvPr id="12" name="吹き出し: 線 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB385CDE-5D49-44BD-B4AD-4292FD83D4E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +3509,7 @@
         <xdr:cNvPr id="13" name="吹き出し: 線 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A7CAA6-E7A2-45A6-BE76-B76765797584}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3620,7 +3619,7 @@
         <xdr:cNvPr id="14" name="吹き出し: 線 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996F44E8-E6D0-4F52-AF63-8110106F02C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3826,7 +3825,7 @@
         <xdr:cNvPr id="15" name="吹き出し: 線 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2ED674C-81CF-43F7-B769-0649112B4D2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +3940,7 @@
         <xdr:cNvPr id="16" name="吹き出し: 線 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509DB542-FB1B-49C1-9F14-3394B4119AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +4055,7 @@
         <xdr:cNvPr id="17" name="吹き出し: 線 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3488E5B5-0ACF-484A-8735-DD6E5A0AAD53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4195,7 +4194,7 @@
         <xdr:cNvPr id="18" name="吹き出し: 線 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E215E74E-E657-4C7D-926D-A6B5AFC7AA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4310,7 +4309,7 @@
         <xdr:cNvPr id="19" name="吹き出し: 線 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A828A0DB-3B92-4160-AB01-2C76491400D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4453,14 +4452,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4520,13 +4519,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>52</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4587,14 +4586,14 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>2374900</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>2810</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4728,7 +4727,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4788,13 +4787,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>2374900</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>222250</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4855,13 +4854,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4929,7 +4928,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>4458</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4996,7 +4995,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5331,7 +5330,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>4457</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5398,7 +5397,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>4458</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5465,7 +5464,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5525,13 +5524,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5592,13 +5591,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5659,13 +5658,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5726,13 +5725,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5793,14 +5792,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5860,14 +5859,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>25399</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5927,13 +5926,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5994,13 +5993,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6061,13 +6060,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6128,14 +6127,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6195,14 +6194,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6262,13 +6261,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6329,13 +6328,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6396,13 +6395,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6463,14 +6462,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>4458</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6530,13 +6529,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6597,13 +6596,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6664,13 +6663,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6731,13 +6730,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6798,13 +6797,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6865,13 +6864,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6932,13 +6931,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6999,13 +6998,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7133,13 +7132,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7200,14 +7199,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>6351</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7267,14 +7266,14 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>2374900</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>222250</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>12701</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7341,7 +7340,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>4458</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7401,24 +7400,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1513" name="Check Box 489" hidden="1">
+            <xdr:cNvPr id="1514" name="Check Box 490" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1513"/>
+                  <a14:compatExt spid="_x0000_s1514"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E9050000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000EA050000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7468,24 +7467,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>2016</xdr:rowOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1514" name="Check Box 490" hidden="1">
+            <xdr:cNvPr id="1535" name="Check Box 511" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1514"/>
+                  <a14:compatExt spid="_x0000_s1535"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000EA050000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000FF050000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7535,24 +7534,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1535" name="Check Box 511" hidden="1">
+            <xdr:cNvPr id="1537" name="Check Box 513" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1535"/>
+                  <a14:compatExt spid="_x0000_s1537"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000FF050000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7602,24 +7601,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>4457</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1537" name="Check Box 513" hidden="1">
+            <xdr:cNvPr id="1540" name="Check Box 516" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1537"/>
+                  <a14:compatExt spid="_x0000_s1540"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7669,24 +7668,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>4458</xdr:rowOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1540" name="Check Box 516" hidden="1">
+            <xdr:cNvPr id="1541" name="Check Box 517" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1540"/>
+                  <a14:compatExt spid="_x0000_s1541"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7736,24 +7735,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1541" name="Check Box 517" hidden="1">
+            <xdr:cNvPr id="1542" name="Check Box 518" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1541"/>
+                  <a14:compatExt spid="_x0000_s1542"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7803,24 +7802,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>2015</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1542" name="Check Box 518" hidden="1">
+            <xdr:cNvPr id="1562" name="Check Box 538" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1542"/>
+                  <a14:compatExt spid="_x0000_s1562"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7870,24 +7869,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>2016</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1562" name="Check Box 538" hidden="1">
+            <xdr:cNvPr id="1565" name="Check Box 541" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1562"/>
+                  <a14:compatExt spid="_x0000_s1565"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7937,24 +7936,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>2016</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1565" name="Check Box 541" hidden="1">
+            <xdr:cNvPr id="1566" name="Check Box 542" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1565"/>
+                  <a14:compatExt spid="_x0000_s1566"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8004,24 +8003,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1566" name="Check Box 542" hidden="1">
+            <xdr:cNvPr id="1567" name="Check Box 543" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1566"/>
+                  <a14:compatExt spid="_x0000_s1567"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8071,24 +8070,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1567" name="Check Box 543" hidden="1">
+            <xdr:cNvPr id="1587" name="Check Box 563" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1567"/>
+                  <a14:compatExt spid="_x0000_s1587"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8138,24 +8137,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>2016</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1587" name="Check Box 563" hidden="1">
+            <xdr:cNvPr id="1589" name="Check Box 565" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1587"/>
+                  <a14:compatExt spid="_x0000_s1589"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8205,24 +8204,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>31749</xdr:rowOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1588" name="Check Box 564" hidden="1">
+            <xdr:cNvPr id="1595" name="Check Box 571" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1588"/>
+                  <a14:compatExt spid="_x0000_s1595"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8272,24 +8271,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1589" name="Check Box 565" hidden="1">
+            <xdr:cNvPr id="1600" name="Check Box 576" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1589"/>
+                  <a14:compatExt spid="_x0000_s1600"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8339,24 +8338,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1595" name="Check Box 571" hidden="1">
+            <xdr:cNvPr id="1605" name="Check Box 581" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1595"/>
+                  <a14:compatExt spid="_x0000_s1605"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8406,24 +8405,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>2016</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1600" name="Check Box 576" hidden="1">
+            <xdr:cNvPr id="1611" name="Check Box 587" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1600"/>
+                  <a14:compatExt spid="_x0000_s1611"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8473,24 +8472,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1605" name="Check Box 581" hidden="1">
+            <xdr:cNvPr id="1612" name="Check Box 588" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1605"/>
+                  <a14:compatExt spid="_x0000_s1612"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8540,24 +8539,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1611" name="Check Box 587" hidden="1">
+            <xdr:cNvPr id="1614" name="Check Box 590" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1611"/>
+                  <a14:compatExt spid="_x0000_s1614"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8607,24 +8606,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1612" name="Check Box 588" hidden="1">
+            <xdr:cNvPr id="1615" name="Check Box 591" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1612"/>
+                  <a14:compatExt spid="_x0000_s1615"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8674,24 +8673,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1613" name="Check Box 589" hidden="1">
+            <xdr:cNvPr id="1636" name="Check Box 612" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1613"/>
+                  <a14:compatExt spid="_x0000_s1636"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8741,24 +8740,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1614" name="Check Box 590" hidden="1">
+            <xdr:cNvPr id="1649" name="Check Box 625" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1614"/>
+                  <a14:compatExt spid="_x0000_s1649"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8808,24 +8807,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>2016</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1615" name="Check Box 591" hidden="1">
+            <xdr:cNvPr id="1662" name="Check Box 638" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1615"/>
+                  <a14:compatExt spid="_x0000_s1662"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8875,24 +8874,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1636" name="Check Box 612" hidden="1">
+            <xdr:cNvPr id="1718" name="Check Box 694" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1636"/>
+                  <a14:compatExt spid="_x0000_s1718"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8942,24 +8941,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1649" name="Check Box 625" hidden="1">
+            <xdr:cNvPr id="1731" name="Check Box 707" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1649"/>
+                  <a14:compatExt spid="_x0000_s1731"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C3060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9009,24 +9008,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1662" name="Check Box 638" hidden="1">
+            <xdr:cNvPr id="1733" name="Check Box 709" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1662"/>
+                  <a14:compatExt spid="_x0000_s1733"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C5060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9076,24 +9075,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>54</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1718" name="Check Box 694" hidden="1">
+            <xdr:cNvPr id="1739" name="Check Box 715" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1718"/>
+                  <a14:compatExt spid="_x0000_s1739"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6060000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CB060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9139,23 +9138,28 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1731" name="Check Box 707" hidden="1">
+            <xdr:cNvPr id="1744" name="Check Box 720" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1731"/>
+                  <a14:compatExt spid="_x0000_s1744"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7386F2DA-40E7-41B0-ADB8-1D714BB0776F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D0060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9195,29 +9199,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1732" name="Check Box 708" hidden="1">
+            <xdr:cNvPr id="1749" name="Check Box 725" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1732"/>
+                  <a14:compatExt spid="_x0000_s1749"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9873D488-A7A1-4A5F-A5C3-E7845AF0E579}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D5060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9257,29 +9266,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1733" name="Check Box 709" hidden="1">
+            <xdr:cNvPr id="1755" name="Check Box 731" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1733"/>
+                  <a14:compatExt spid="_x0000_s1755"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D60DCBB-E87E-42D6-901A-215EF08252F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DB060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9319,29 +9333,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1739" name="Check Box 715" hidden="1">
+            <xdr:cNvPr id="1756" name="Check Box 732" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1739"/>
+                  <a14:compatExt spid="_x0000_s1756"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFB4C1C-9D08-40AF-B6F4-CBB0185A744E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DC060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9381,29 +9400,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1744" name="Check Box 720" hidden="1">
+            <xdr:cNvPr id="1758" name="Check Box 734" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1744"/>
+                  <a14:compatExt spid="_x0000_s1758"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFADD5D-0A6C-4B9A-B080-E8F972982C4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DE060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9443,29 +9467,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1749" name="Check Box 725" hidden="1">
+            <xdr:cNvPr id="1759" name="Check Box 735" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1749"/>
+                  <a14:compatExt spid="_x0000_s1759"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6093619-22B5-4262-9028-08B9E7CFCEBC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DF060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9505,29 +9534,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1755" name="Check Box 731" hidden="1">
+            <xdr:cNvPr id="1780" name="Check Box 756" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1755"/>
+                  <a14:compatExt spid="_x0000_s1780"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1F151F-CBEB-41F6-87FD-9328E36ACF5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000F4060000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9567,29 +9601,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1756" name="Check Box 732" hidden="1">
+            <xdr:cNvPr id="1793" name="Check Box 769" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1756"/>
+                  <a14:compatExt spid="_x0000_s1793"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47E5825-A97A-4B19-912E-AE6D6E15AA0B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001070000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9629,29 +9668,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1757" name="Check Box 733" hidden="1">
+            <xdr:cNvPr id="1806" name="Check Box 782" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1757"/>
+                  <a14:compatExt spid="_x0000_s1806"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03494831-6211-4B52-BBB0-5AA1F138FBB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E070000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9691,29 +9735,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1758" name="Check Box 734" hidden="1">
+            <xdr:cNvPr id="1862" name="Check Box 838" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1758"/>
+                  <a14:compatExt spid="_x0000_s1862"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CF1FE3-F647-4FDD-93A5-D088C6FFF48F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046070000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9753,29 +9802,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1759" name="Check Box 735" hidden="1">
+            <xdr:cNvPr id="1868" name="Check Box 844" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1759"/>
+                  <a14:compatExt spid="_x0000_s1868"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF879A9F-E5CC-4B5C-A69F-8C397D28D351}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C070000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9815,29 +9869,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1780" name="Check Box 756" hidden="1">
+            <xdr:cNvPr id="1869" name="Check Box 845" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1780"/>
+                  <a14:compatExt spid="_x0000_s1869"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50934C5E-CA23-491D-8E77-ECFA7EA09F13}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D070000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9877,29 +9936,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1793" name="Check Box 769" hidden="1">
+            <xdr:cNvPr id="1870" name="Check Box 846" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1793"/>
+                  <a14:compatExt spid="_x0000_s1870"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDF5CA7-4D8A-4461-A585-BC6E07659822}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E070000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9939,29 +10003,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:colOff>6350</xdr:colOff>
+          <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>6350</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1806" name="Check Box 782" hidden="1">
+            <xdr:cNvPr id="1872" name="Check Box 848" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1806"/>
+                  <a14:compatExt spid="_x0000_s1872"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A32510-02C5-4067-8292-B826138F8D8F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050070000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10001,29 +10070,34 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="244525" cy="251984"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1862" name="Check Box 838" hidden="1">
+            <xdr:cNvPr id="1873" name="Check Box 849" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1862"/>
+                  <a14:compatExt spid="_x0000_s1873"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C276B13-E273-47F0-8A06-69255CB12EA0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051070000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10063,7 +10137,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -10073,24 +10147,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1868" name="Check Box 844" hidden="1">
+            <xdr:cNvPr id="1874" name="Check Box 850" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1868"/>
+                  <a14:compatExt spid="_x0000_s1874"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8E6671-52D5-F30D-8C9F-F64061610C6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D520747-CC1F-12BF-874F-B471161858A1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10140,225 +10214,24 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1869" name="Check Box 845" hidden="1">
+            <xdr:cNvPr id="1875" name="Check Box 851" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1869"/>
+                  <a14:compatExt spid="_x0000_s1875"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41EAFD0-0BB9-DE87-C35B-8E7A9217D912}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1870" name="Check Box 846" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1870"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEACFBE5-EF3F-5CDB-5A0E-A848F3772C3C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1872" name="Check Box 848" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1872"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1CFFF8-9820-2211-68F4-9008A511A320}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1873" name="Check Box 849" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1873"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAC1780-F211-7760-539F-6C8CEE586051}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BA8017-0CE3-47FB-1B1C-F307552C0E96}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10750,10 +10623,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
@@ -10775,13 +10648,13 @@
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="25"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -10791,11 +10664,11 @@
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
@@ -10836,13 +10709,13 @@
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="10"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -10885,10 +10758,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -10908,8 +10781,8 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="31"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
@@ -10927,8 +10800,8 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
@@ -10946,8 +10819,8 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="18" t="s">
         <v>30</v>
       </c>
@@ -10965,8 +10838,8 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="32"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="18"/>
       <c r="D11" s="5" t="s">
         <v>86</v>
@@ -10982,10 +10855,10 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -11005,8 +10878,8 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="44"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="18" t="s">
         <v>17</v>
       </c>
@@ -11024,8 +10897,8 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="44"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="18" t="s">
         <v>30</v>
       </c>
@@ -11043,8 +10916,8 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="44"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="18"/>
       <c r="D15" s="5" t="s">
         <v>87</v>
@@ -11060,10 +10933,10 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -11083,8 +10956,8 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="44"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="18" t="s">
         <v>20</v>
       </c>
@@ -11102,8 +10975,8 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="44"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="18" t="s">
         <v>28</v>
       </c>
@@ -11121,49 +10994,53 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="18" t="s">
+        <v>111</v>
+      </c>
       <c r="D19" s="5" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="13"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="5" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="13"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>94</v>
+      </c>
       <c r="C21" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>1</v>
@@ -11176,13 +11053,13 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="44"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>1</v>
@@ -11195,34 +11072,32 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="44"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="D23" s="5" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="13"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>33</v>
-      </c>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="38"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="18" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>1</v>
@@ -11235,32 +11110,34 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="44"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="A25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="5" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="13"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="44"/>
-      <c r="B26" s="46"/>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>33</v>
+      </c>
       <c r="C26" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>1</v>
@@ -11273,13 +11150,13 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="44"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
+      <c r="A27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>1</v>
@@ -11292,13 +11169,13 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="7">
-        <v>12345</v>
+      <c r="A28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>1</v>
@@ -11310,14 +11187,14 @@
       <c r="H28" s="13"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="44"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="22" t="s">
-        <v>38</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="38"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>1</v>
@@ -11330,13 +11207,13 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="44"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="4" t="s">
-        <v>45</v>
+      <c r="A30" s="38"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="7">
+        <v>12345</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>1</v>
@@ -11348,35 +11225,33 @@
       <c r="H30" s="13"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="44"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="4"/>
+    <row r="31" spans="1:9" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="38"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="D31" s="5" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="13"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>47</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="38"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>1</v>
@@ -11389,32 +11264,34 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="A33" s="38"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="13"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>52</v>
+      </c>
       <c r="C34" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>1</v>
@@ -11427,13 +11304,13 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>1</v>
@@ -11441,18 +11318,18 @@
       <c r="F35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="13"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>1</v>
@@ -11465,33 +11342,33 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="D37" s="5" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="13"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>70</v>
-      </c>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="38"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E38" s="9" t="s">
         <v>1</v>
       </c>
@@ -11502,105 +11379,103 @@
       <c r="H38" s="13"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="44"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="5"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="38"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="E39" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="13"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="7">
-        <v>123456</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>61</v>
-      </c>
+    <row r="40" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="13"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="44"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="7">
-        <v>12345</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>43</v>
-      </c>
+    <row r="41" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="38"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="3"/>
       <c r="H41" s="13"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="30"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="7"/>
+    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="7">
+        <v>123456</v>
+      </c>
       <c r="D42" s="5" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="5"/>
       <c r="H42" s="13"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>63</v>
+      <c r="A43" s="38"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="7">
+        <v>12345</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F43" s="11"/>
       <c r="G43" s="5"/>
       <c r="H43" s="13"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="52"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="5" t="s">
         <v>86</v>
       </c>
@@ -11608,24 +11483,24 @@
         <v>13</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="13"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>71</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>1</v>
@@ -11637,207 +11512,247 @@
       <c r="H45" s="13"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="31"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>72</v>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="33"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="13"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="31"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>21</v>
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="13"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="32"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="21"/>
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="40"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="D48" s="18" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="13"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>71</v>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="40"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="13"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="31"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="21" t="s">
-        <v>78</v>
-      </c>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="41"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="18" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="13"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="37.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="31"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>39</v>
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="13"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="32"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="21"/>
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="40"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="D52" s="18" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="13"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="5"/>
+    <row r="53" spans="1:9" ht="37.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="40"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E53" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="F53" s="11"/>
       <c r="G53" s="5"/>
       <c r="H53" s="13"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="32"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="5"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="E54" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="13"/>
       <c r="I54" s="2"/>
     </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="41"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A7:A11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A7:A11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E7:E54">
+  <conditionalFormatting sqref="E7:E56">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"エラー"</formula>
     </cfRule>
@@ -11884,13 +11799,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>6350</xdr:colOff>
-                    <xdr:row>52</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11906,13 +11821,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>2374900</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11972,13 +11887,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>6350</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>6350</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -11994,13 +11909,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12214,13 +12129,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12236,13 +12151,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12258,13 +12173,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12280,13 +12195,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12302,13 +12217,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12324,13 +12239,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12346,13 +12261,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12368,13 +12283,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12390,13 +12305,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12412,13 +12327,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12434,13 +12349,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12456,13 +12371,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12478,13 +12393,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12500,13 +12415,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>35</xdr:row>
+                    <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12522,13 +12437,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>35</xdr:row>
+                    <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12544,13 +12459,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12566,13 +12481,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12588,13 +12503,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12610,13 +12525,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12632,13 +12547,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12654,13 +12569,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12676,13 +12591,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12720,13 +12635,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12742,13 +12657,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12764,13 +12679,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>6350</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>6350</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>48</xdr:row>
                     <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12802,20 +12717,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1513" r:id="rId47" name="Check Box 489">
+            <control shapeId="1514" r:id="rId47" name="Check Box 490">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12824,19 +12739,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1514" r:id="rId48" name="Check Box 490">
+            <control shapeId="1535" r:id="rId48" name="Check Box 511">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12846,19 +12761,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1535" r:id="rId49" name="Check Box 511">
+            <control shapeId="1537" r:id="rId49" name="Check Box 513">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12868,19 +12783,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1537" r:id="rId50" name="Check Box 513">
+            <control shapeId="1540" r:id="rId50" name="Check Box 516">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12890,19 +12805,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1540" r:id="rId51" name="Check Box 516">
+            <control shapeId="1541" r:id="rId51" name="Check Box 517">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12912,19 +12827,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1541" r:id="rId52" name="Check Box 517">
+            <control shapeId="1542" r:id="rId52" name="Check Box 518">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12934,19 +12849,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1542" r:id="rId53" name="Check Box 518">
+            <control shapeId="1562" r:id="rId53" name="Check Box 538">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12956,19 +12871,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1562" r:id="rId54" name="Check Box 538">
+            <control shapeId="1565" r:id="rId54" name="Check Box 541">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -12978,19 +12893,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1565" r:id="rId55" name="Check Box 541">
+            <control shapeId="1566" r:id="rId55" name="Check Box 542">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13000,19 +12915,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1566" r:id="rId56" name="Check Box 542">
+            <control shapeId="1567" r:id="rId56" name="Check Box 543">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13022,19 +12937,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1567" r:id="rId57" name="Check Box 543">
+            <control shapeId="1587" r:id="rId57" name="Check Box 563">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13044,19 +12959,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1587" r:id="rId58" name="Check Box 563">
+            <control shapeId="1589" r:id="rId58" name="Check Box 565">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13066,20 +12981,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1588" r:id="rId59" name="Check Box 564">
+            <control shapeId="1595" r:id="rId59" name="Check Box 571">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13088,19 +13003,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1589" r:id="rId60" name="Check Box 565">
+            <control shapeId="1600" r:id="rId60" name="Check Box 576">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13110,63 +13025,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1595" r:id="rId61" name="Check Box 571">
+            <control shapeId="1605" r:id="rId61" name="Check Box 581">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1600" r:id="rId62" name="Check Box 576">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1605" r:id="rId63" name="Check Box 581">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13176,19 +13047,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1611" r:id="rId64" name="Check Box 587">
+            <control shapeId="1611" r:id="rId62" name="Check Box 587">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13198,19 +13069,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1612" r:id="rId65" name="Check Box 588">
+            <control shapeId="1612" r:id="rId63" name="Check Box 588">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13220,20 +13091,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1613" r:id="rId66" name="Check Box 589">
+            <control shapeId="1614" r:id="rId64" name="Check Box 590">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13242,19 +13113,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1614" r:id="rId67" name="Check Box 590">
+            <control shapeId="1615" r:id="rId65" name="Check Box 591">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13264,19 +13135,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1615" r:id="rId68" name="Check Box 591">
+            <control shapeId="1636" r:id="rId66" name="Check Box 612">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13286,19 +13157,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1636" r:id="rId69" name="Check Box 612">
+            <control shapeId="1649" r:id="rId67" name="Check Box 625">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13308,19 +13179,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1649" r:id="rId70" name="Check Box 625">
+            <control shapeId="1662" r:id="rId68" name="Check Box 638">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13330,19 +13201,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1662" r:id="rId71" name="Check Box 638">
+            <control shapeId="1718" r:id="rId69" name="Check Box 694">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13352,19 +13223,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1718" r:id="rId72" name="Check Box 694">
+            <control shapeId="1731" r:id="rId70" name="Check Box 707">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13374,19 +13245,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1731" r:id="rId73" name="Check Box 707">
+            <control shapeId="1733" r:id="rId71" name="Check Box 709">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13396,20 +13267,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1732" r:id="rId74" name="Check Box 708">
+            <control shapeId="1739" r:id="rId72" name="Check Box 715">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13418,19 +13289,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1733" r:id="rId75" name="Check Box 709">
+            <control shapeId="1744" r:id="rId73" name="Check Box 720">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13440,63 +13311,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1739" r:id="rId76" name="Check Box 715">
+            <control shapeId="1749" r:id="rId74" name="Check Box 725">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1744" r:id="rId77" name="Check Box 720">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1749" r:id="rId78" name="Check Box 725">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13506,19 +13333,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1755" r:id="rId79" name="Check Box 731">
+            <control shapeId="1755" r:id="rId75" name="Check Box 731">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13528,19 +13355,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1756" r:id="rId80" name="Check Box 732">
+            <control shapeId="1756" r:id="rId76" name="Check Box 732">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13550,20 +13377,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1757" r:id="rId81" name="Check Box 733">
+            <control shapeId="1758" r:id="rId77" name="Check Box 734">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13572,19 +13399,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1758" r:id="rId82" name="Check Box 734">
+            <control shapeId="1759" r:id="rId78" name="Check Box 735">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13594,19 +13421,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1759" r:id="rId83" name="Check Box 735">
+            <control shapeId="1780" r:id="rId79" name="Check Box 756">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13616,19 +13443,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1780" r:id="rId84" name="Check Box 756">
+            <control shapeId="1793" r:id="rId80" name="Check Box 769">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13638,19 +13465,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1793" r:id="rId85" name="Check Box 769">
+            <control shapeId="1806" r:id="rId81" name="Check Box 782">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13660,19 +13487,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1806" r:id="rId86" name="Check Box 782">
+            <control shapeId="1862" r:id="rId82" name="Check Box 838">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13682,20 +13509,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1862" r:id="rId87" name="Check Box 838">
+            <control shapeId="1266" r:id="rId83" name="Check Box 242">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>53</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>2374900</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>54</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>222250</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13704,18 +13531,40 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1266" r:id="rId88" name="Check Box 242">
+            <control shapeId="1493" r:id="rId84" name="Check Box 469">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>2374900</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>51</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>222250</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1868" r:id="rId85" name="Check Box 844">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </to>
@@ -13726,20 +13575,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1493" r:id="rId89" name="Check Box 469">
+            <control shapeId="1869" r:id="rId86" name="Check Box 845">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>2374900</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>222250</xdr:colOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13748,20 +13597,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1868" r:id="rId90" name="Check Box 844">
+            <control shapeId="1870" r:id="rId87" name="Check Box 846">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>46</xdr:row>
+                    <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>6350</xdr:colOff>
-                    <xdr:row>47</xdr:row>
-                    <xdr:rowOff>215900</xdr:rowOff>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13770,63 +13619,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1869" r:id="rId91" name="Check Box 845">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>47</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>48</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1870" r:id="rId92" name="Check Box 846">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>51</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>52</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1872" r:id="rId93" name="Check Box 848">
+            <control shapeId="1872" r:id="rId88" name="Check Box 848">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>6350</xdr:colOff>
-                    <xdr:row>50</xdr:row>
+                    <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
-                    <xdr:row>51</xdr:row>
+                    <xdr:row>53</xdr:row>
                     <xdr:rowOff>6350</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13836,19 +13641,63 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1873" r:id="rId94" name="Check Box 849">
+            <control shapeId="1873" r:id="rId89" name="Check Box 849">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1874" r:id="rId90" name="Check Box 850">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1875" r:id="rId91" name="Check Box 851">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13866,13 +13715,13 @@
           <x14:formula1>
             <xm:f>sample!$A$44:$A$45</xm:f>
           </x14:formula1>
-          <xm:sqref>E7:E54</xm:sqref>
+          <xm:sqref>E7:E56</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CFD314BC-6A9A-4B4A-8ED4-FCCD7F5D05D5}">
           <x14:formula1>
             <xm:f>sample!$B$44:$B$45</xm:f>
           </x14:formula1>
-          <xm:sqref>H7:H54</xm:sqref>
+          <xm:sqref>H7:H56</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
